--- a/Code/Results/Cases/Case_1_71/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_71/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2195371545105615</v>
+        <v>0.07492757642405934</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1286662804921122</v>
+        <v>0.1418663856174618</v>
       </c>
       <c r="E2">
-        <v>0.1506453191609296</v>
+        <v>0.1535630155413727</v>
       </c>
       <c r="F2">
-        <v>1.294729725220918</v>
+        <v>1.850564403315317</v>
       </c>
       <c r="G2">
-        <v>0.9555699616397106</v>
+        <v>1.202286409497134</v>
       </c>
       <c r="H2">
-        <v>0.6074482974964042</v>
+        <v>1.140910202406872</v>
       </c>
       <c r="I2">
-        <v>0.2247858735049846</v>
+        <v>0.5122450281881115</v>
       </c>
       <c r="J2">
-        <v>0.2028635324505856</v>
+        <v>0.1979505855692381</v>
       </c>
       <c r="K2">
-        <v>2.856343631084997</v>
+        <v>1.190017266316573</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7463707677775098</v>
+        <v>1.537932231489793</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1912773489055155</v>
+        <v>0.06601511057540677</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1141050709484404</v>
+        <v>0.1385942412145624</v>
       </c>
       <c r="E3">
-        <v>0.1340504067817179</v>
+        <v>0.1501442596801645</v>
       </c>
       <c r="F3">
-        <v>1.198980472212725</v>
+        <v>1.84070584341633</v>
       </c>
       <c r="G3">
-        <v>0.8797682589804765</v>
+        <v>1.193364651663103</v>
       </c>
       <c r="H3">
-        <v>0.5803164773930973</v>
+        <v>1.142526749673834</v>
       </c>
       <c r="I3">
-        <v>0.2364983720743155</v>
+        <v>0.5186530680228412</v>
       </c>
       <c r="J3">
-        <v>0.1808294600250022</v>
+        <v>0.1936152618165892</v>
       </c>
       <c r="K3">
-        <v>2.474140325631282</v>
+        <v>1.086145941070612</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.790822473982649</v>
+        <v>1.556008322597279</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1739078415024693</v>
+        <v>0.06053932161339048</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1052596513581534</v>
+        <v>0.1366390091034475</v>
       </c>
       <c r="E4">
-        <v>0.1240436759057495</v>
+        <v>0.1481237964890028</v>
       </c>
       <c r="F4">
-        <v>1.142819956880132</v>
+        <v>1.835762985020736</v>
       </c>
       <c r="G4">
-        <v>0.83544099554382</v>
+        <v>1.188717721887599</v>
       </c>
       <c r="H4">
-        <v>0.5649064978766916</v>
+        <v>1.144113671600081</v>
       </c>
       <c r="I4">
-        <v>0.2441700121340666</v>
+        <v>0.5228324154145678</v>
       </c>
       <c r="J4">
-        <v>0.1676115325337335</v>
+        <v>0.1910707320192984</v>
       </c>
       <c r="K4">
-        <v>2.241305142564642</v>
+        <v>1.022743832006114</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8192755420917788</v>
+        <v>1.567668189366525</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1668238981778813</v>
+        <v>0.05830720056020766</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1016766592972544</v>
+        <v>0.1358558362146596</v>
       </c>
       <c r="E5">
-        <v>0.1200075095583237</v>
+        <v>0.1473202248180279</v>
       </c>
       <c r="F5">
-        <v>1.120546835652419</v>
+        <v>1.83402752926952</v>
       </c>
       <c r="G5">
-        <v>0.8178912387953829</v>
+        <v>1.187032498314892</v>
       </c>
       <c r="H5">
-        <v>0.5589211160320389</v>
+        <v>1.144909692670424</v>
       </c>
       <c r="I5">
-        <v>0.2474133501538862</v>
+        <v>0.524597065389651</v>
       </c>
       <c r="J5">
-        <v>0.16229613040462</v>
+        <v>0.190063279428891</v>
       </c>
       <c r="K5">
-        <v>2.146812702245484</v>
+        <v>0.9970015652793336</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8311541250842946</v>
+        <v>1.572560722525038</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1656472344086097</v>
+        <v>0.05793652224858192</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1010829441229504</v>
+        <v>0.135726613906499</v>
       </c>
       <c r="E6">
-        <v>0.1193397038880519</v>
+        <v>0.1471879873070634</v>
       </c>
       <c r="F6">
-        <v>1.116884048555349</v>
+        <v>1.833756185254259</v>
       </c>
       <c r="G6">
-        <v>0.8150069501663921</v>
+        <v>1.186765241654996</v>
       </c>
       <c r="H6">
-        <v>0.5579444696542879</v>
+        <v>1.14505088759023</v>
       </c>
       <c r="I6">
-        <v>0.2479588722605861</v>
+        <v>0.5248937999373915</v>
       </c>
       <c r="J6">
-        <v>0.1614175988588471</v>
+        <v>0.189897770765576</v>
       </c>
       <c r="K6">
-        <v>2.131143816450532</v>
+        <v>0.9927328027855253</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8331434705683058</v>
+        <v>1.573381641346372</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1738123297277525</v>
+        <v>0.06050922100401124</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1052112454660659</v>
+        <v>0.1366283918237627</v>
       </c>
       <c r="E7">
-        <v>0.1239890795157592</v>
+        <v>0.1481128791341</v>
       </c>
       <c r="F7">
-        <v>1.142517154702617</v>
+        <v>1.835738451751084</v>
       </c>
       <c r="G7">
-        <v>0.8352022872885527</v>
+        <v>1.1886941511343</v>
       </c>
       <c r="H7">
-        <v>0.5648246104744032</v>
+        <v>1.144123802518507</v>
       </c>
       <c r="I7">
-        <v>0.2442132835470492</v>
+        <v>0.5228559649897466</v>
       </c>
       <c r="J7">
-        <v>0.1675395688325594</v>
+        <v>0.1910570259294815</v>
       </c>
       <c r="K7">
-        <v>2.24002929868783</v>
+        <v>1.022396279416398</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8194346020389673</v>
+        <v>1.567733600764369</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2097961057436351</v>
+        <v>0.07185539379632644</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1236243409395854</v>
+        <v>0.1407269977284926</v>
       </c>
       <c r="E8">
-        <v>0.1448828345100601</v>
+        <v>0.1523679009174792</v>
       </c>
       <c r="F8">
-        <v>1.261139284955519</v>
+        <v>1.846934468509545</v>
       </c>
       <c r="G8">
-        <v>0.9289469069516514</v>
+        <v>1.199037367379262</v>
       </c>
       <c r="H8">
-        <v>0.5978216787484456</v>
+        <v>1.141344155175787</v>
       </c>
       <c r="I8">
-        <v>0.2287224436539379</v>
+        <v>0.5144037030127908</v>
       </c>
       <c r="J8">
-        <v>0.1951971209247176</v>
+        <v>0.1964313715297692</v>
       </c>
       <c r="K8">
-        <v>2.72413275817803</v>
+        <v>1.154124643155285</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7614521888898835</v>
+        <v>1.544048391869367</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2802817117099607</v>
+        <v>0.09407029813274903</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1606042060933959</v>
+        <v>0.1491901070444044</v>
       </c>
       <c r="E9">
-        <v>0.1875135084730459</v>
+        <v>0.1613367250750528</v>
       </c>
       <c r="F9">
-        <v>1.516996866263412</v>
+        <v>1.877722025256048</v>
       </c>
       <c r="G9">
-        <v>1.132461263199389</v>
+        <v>1.225941841818184</v>
       </c>
       <c r="H9">
-        <v>0.6734055059591526</v>
+        <v>1.140615868687149</v>
       </c>
       <c r="I9">
-        <v>0.2023276585340934</v>
+        <v>0.4997718658617494</v>
       </c>
       <c r="J9">
-        <v>0.2522553849192377</v>
+        <v>0.2079049200261949</v>
       </c>
       <c r="K9">
-        <v>3.691645545201084</v>
+        <v>1.415425500740469</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6573246718759833</v>
+        <v>1.502054921066994</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3321191741010949</v>
+        <v>0.1103622987864838</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1884827588254296</v>
+        <v>0.1556659751223606</v>
       </c>
       <c r="E10">
-        <v>0.2201637584074305</v>
+        <v>0.1683086823633246</v>
       </c>
       <c r="F10">
-        <v>1.722745986098843</v>
+        <v>1.905762386032819</v>
       </c>
       <c r="G10">
-        <v>1.297175720046852</v>
+        <v>1.249787279709039</v>
       </c>
       <c r="H10">
-        <v>0.7370341370861979</v>
+        <v>1.142970946467244</v>
       </c>
       <c r="I10">
-        <v>0.1856185540371946</v>
+        <v>0.4902071553266225</v>
       </c>
       <c r="J10">
-        <v>0.2964349547301737</v>
+        <v>0.2169097632605741</v>
       </c>
       <c r="K10">
-        <v>4.419082393871975</v>
+        <v>1.609247835103588</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5872177131036853</v>
+        <v>1.473917863808195</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3557367999237755</v>
+        <v>0.1177659958613759</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2013633378081465</v>
+        <v>0.1586677750059948</v>
       </c>
       <c r="E11">
-        <v>0.2353845800070289</v>
+        <v>0.1715639084066112</v>
       </c>
       <c r="F11">
-        <v>1.821095610836906</v>
+        <v>1.919704025329651</v>
       </c>
       <c r="G11">
-        <v>1.376197226228157</v>
+        <v>1.261530241178264</v>
       </c>
       <c r="H11">
-        <v>0.7681014948779534</v>
+        <v>1.144672479089508</v>
       </c>
       <c r="I11">
-        <v>0.1786610502781212</v>
+        <v>0.4861134648706944</v>
       </c>
       <c r="J11">
-        <v>0.3171571499533172</v>
+        <v>0.221132483339801</v>
       </c>
       <c r="K11">
-        <v>4.754989434728145</v>
+        <v>1.697830332694366</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5568491939748279</v>
+        <v>1.461707445148116</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3646875005923818</v>
+        <v>0.1205683195935876</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2062734167630254</v>
+        <v>0.159812477083392</v>
       </c>
       <c r="E12">
-        <v>0.2412084734295874</v>
+        <v>0.1728086226358627</v>
       </c>
       <c r="F12">
-        <v>1.859103975309608</v>
+        <v>1.925154472847183</v>
       </c>
       <c r="G12">
-        <v>1.406782236823148</v>
+        <v>1.266106461774768</v>
       </c>
       <c r="H12">
-        <v>0.7802047488525261</v>
+        <v>1.14540761065453</v>
       </c>
       <c r="I12">
-        <v>0.1761245747925226</v>
+        <v>0.4846003220175472</v>
       </c>
       <c r="J12">
-        <v>0.3251062504252644</v>
+        <v>0.2227497696681553</v>
       </c>
       <c r="K12">
-        <v>4.883033044337481</v>
+        <v>1.731433561555775</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5455812132585871</v>
+        <v>1.45716847603474</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3627594529622513</v>
+        <v>0.1199648498491541</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.205214431847665</v>
+        <v>0.1595655906710647</v>
       </c>
       <c r="E13">
-        <v>0.2399513990286692</v>
+        <v>0.1725400160416015</v>
       </c>
       <c r="F13">
-        <v>1.850882754907261</v>
+        <v>1.923973005637038</v>
       </c>
       <c r="G13">
-        <v>1.400164558273559</v>
+        <v>1.26511512479118</v>
       </c>
       <c r="H13">
-        <v>0.7775824617604599</v>
+        <v>1.14524524579906</v>
       </c>
       <c r="I13">
-        <v>0.1766663889194184</v>
+        <v>0.4849245559556579</v>
       </c>
       <c r="J13">
-        <v>0.3233895225583439</v>
+        <v>0.2224006461716357</v>
       </c>
       <c r="K13">
-        <v>4.855416943954822</v>
+        <v>1.724193886598641</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5479974429650332</v>
+        <v>1.458142248575481</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3564730229445701</v>
+        <v>0.1179965718353913</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2017666180097279</v>
+        <v>0.1587617905880876</v>
       </c>
       <c r="E14">
-        <v>0.2358624671401301</v>
+        <v>0.171666070665438</v>
       </c>
       <c r="F14">
-        <v>1.824206741391549</v>
+        <v>1.920149005835</v>
       </c>
       <c r="G14">
-        <v>1.378699777032182</v>
+        <v>1.261904132249413</v>
       </c>
       <c r="H14">
-        <v>0.7690902443379173</v>
+        <v>1.144731138053714</v>
       </c>
       <c r="I14">
-        <v>0.1784503713188066</v>
+        <v>0.4859882349348137</v>
       </c>
       <c r="J14">
-        <v>0.3178090074731728</v>
+        <v>0.2212651726683958</v>
       </c>
       <c r="K14">
-        <v>4.765506004300448</v>
+        <v>1.700593710311239</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5559174447419029</v>
+        <v>1.461332320204075</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3526234042222427</v>
+        <v>0.1167907700439343</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1996590862163004</v>
+        <v>0.1582704782527173</v>
       </c>
       <c r="E15">
-        <v>0.2333659298550756</v>
+        <v>0.1711323207279634</v>
       </c>
       <c r="F15">
-        <v>1.807969175358721</v>
+        <v>1.917828986847525</v>
       </c>
       <c r="G15">
-        <v>1.365640383522162</v>
+        <v>1.259954179353116</v>
       </c>
       <c r="H15">
-        <v>0.7639336797267049</v>
+        <v>1.144428062104197</v>
       </c>
       <c r="I15">
-        <v>0.1795560730888113</v>
+        <v>0.4866445951648739</v>
       </c>
       <c r="J15">
-        <v>0.3144044552193321</v>
+        <v>0.2205720387983661</v>
       </c>
       <c r="K15">
-        <v>4.710546658697069</v>
+        <v>1.686145591942193</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5607992780015598</v>
+        <v>1.463297384838075</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3305766060263693</v>
+        <v>0.1098782793651623</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1876453051282141</v>
+        <v>0.155470920734075</v>
       </c>
       <c r="E16">
-        <v>0.2191770454579469</v>
+        <v>0.168097629080016</v>
       </c>
       <c r="F16">
-        <v>1.71642108054273</v>
+        <v>1.904875175098354</v>
       </c>
       <c r="G16">
-        <v>1.292099885795267</v>
+        <v>1.24903792467191</v>
       </c>
       <c r="H16">
-        <v>0.7350493103458007</v>
+        <v>1.142872443491314</v>
       </c>
       <c r="I16">
-        <v>0.1860866649997792</v>
+        <v>0.490479869724858</v>
       </c>
       <c r="J16">
-        <v>0.295094298433753</v>
+        <v>0.2166363467579941</v>
       </c>
       <c r="K16">
-        <v>4.397240935461241</v>
+        <v>1.603467024422798</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.589234095735927</v>
+        <v>1.474727710745171</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3170623111002726</v>
+        <v>0.1056355967532738</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1803287643284364</v>
+        <v>0.1537677617726274</v>
       </c>
       <c r="E17">
-        <v>0.2105717798127458</v>
+        <v>0.1662573697356891</v>
       </c>
       <c r="F17">
-        <v>1.661532560549716</v>
+        <v>1.897232542855406</v>
       </c>
       <c r="G17">
-        <v>1.248082855138421</v>
+        <v>1.242570979885897</v>
       </c>
       <c r="H17">
-        <v>0.7178961021712951</v>
+        <v>1.142079654862556</v>
       </c>
       <c r="I17">
-        <v>0.1902616735505038</v>
+        <v>0.4928986290322186</v>
       </c>
       <c r="J17">
-        <v>0.2834164633869705</v>
+        <v>0.2142543377067625</v>
       </c>
       <c r="K17">
-        <v>4.206401692194731</v>
+        <v>1.55285167884773</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6070769220164287</v>
+        <v>1.481890852191375</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3092925550218268</v>
+        <v>0.1031946130442947</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1761389087457843</v>
+        <v>0.1527934139723897</v>
       </c>
       <c r="E18">
-        <v>0.2056564332450108</v>
+        <v>0.165206774384032</v>
       </c>
       <c r="F18">
-        <v>1.630404178855414</v>
+        <v>1.892948297901285</v>
       </c>
       <c r="G18">
-        <v>1.223145822457241</v>
+        <v>1.238935619526728</v>
       </c>
       <c r="H18">
-        <v>0.7082276044071421</v>
+        <v>1.141682970046332</v>
       </c>
       <c r="I18">
-        <v>0.1927232393157396</v>
+        <v>0.4943140552757352</v>
       </c>
       <c r="J18">
-        <v>0.2767576798098332</v>
+        <v>0.2128961600696186</v>
       </c>
       <c r="K18">
-        <v>4.097097711020979</v>
+        <v>1.52377784050941</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6174822083269076</v>
+        <v>1.48606635938255</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3066623599668361</v>
+        <v>0.1023680229589274</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1747233461283884</v>
+        <v>0.152464422270242</v>
       </c>
       <c r="E19">
-        <v>0.2039978435836574</v>
+        <v>0.1648524130069973</v>
       </c>
       <c r="F19">
-        <v>1.619938196749686</v>
+        <v>1.89151687714147</v>
       </c>
       <c r="G19">
-        <v>1.21476580157065</v>
+        <v>1.237719200578312</v>
       </c>
       <c r="H19">
-        <v>0.7049869825495705</v>
+        <v>1.141558839964375</v>
       </c>
       <c r="I19">
-        <v>0.1935668599367606</v>
+        <v>0.494797452761869</v>
       </c>
       <c r="J19">
-        <v>0.2745127383391974</v>
+        <v>0.2124383448732203</v>
       </c>
       <c r="K19">
-        <v>4.060164954803554</v>
+        <v>1.513940604888433</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6210293720885565</v>
+        <v>1.487489635852072</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3185005746387759</v>
+        <v>0.1060873119680394</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1811056882931723</v>
+        <v>0.1539485215067913</v>
       </c>
       <c r="E20">
-        <v>0.2114842383504794</v>
+        <v>0.1664524536284659</v>
       </c>
       <c r="F20">
-        <v>1.667329219155519</v>
+        <v>1.898034560726046</v>
       </c>
       <c r="G20">
-        <v>1.252728668463504</v>
+        <v>1.243250672495464</v>
       </c>
       <c r="H20">
-        <v>0.7197014100003969</v>
+        <v>1.142157909315927</v>
       </c>
       <c r="I20">
-        <v>0.1898109657038738</v>
+        <v>0.4926386409975549</v>
       </c>
       <c r="J20">
-        <v>0.2846535015490019</v>
+        <v>0.2145066755220455</v>
       </c>
       <c r="K20">
-        <v>4.22666820565064</v>
+        <v>1.558235758108253</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6051626783931452</v>
+        <v>1.481122583066405</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3583192874412759</v>
+        <v>0.1185747395584826</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2027784096157887</v>
+        <v>0.158997669842762</v>
       </c>
       <c r="E21">
-        <v>0.2370617937977499</v>
+        <v>0.1719224430743367</v>
       </c>
       <c r="F21">
-        <v>1.832020663777087</v>
+        <v>1.921267560856094</v>
       </c>
       <c r="G21">
-        <v>1.384985939655877</v>
+        <v>1.262843761185138</v>
       </c>
       <c r="H21">
-        <v>0.7715751377067477</v>
+        <v>1.144879678302232</v>
       </c>
       <c r="I21">
-        <v>0.1779236606658952</v>
+        <v>0.4856748007935394</v>
       </c>
       <c r="J21">
-        <v>0.3194452667175369</v>
+        <v>0.2215981934023574</v>
       </c>
       <c r="K21">
-        <v>4.791891089938929</v>
+        <v>1.707524055954195</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5535847459343648</v>
+        <v>1.460393015055651</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3843862218393923</v>
+        <v>0.1267283506254131</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2171342350727485</v>
+        <v>0.1623441025705006</v>
       </c>
       <c r="E22">
-        <v>0.2541323622932481</v>
+        <v>0.1755675233917984</v>
       </c>
       <c r="F22">
-        <v>1.944162077161423</v>
+        <v>1.937448930552378</v>
       </c>
       <c r="G22">
-        <v>1.4753174141469</v>
+        <v>1.276403611319353</v>
       </c>
       <c r="H22">
-        <v>0.8074700063000364</v>
+        <v>1.147187836730609</v>
       </c>
       <c r="I22">
-        <v>0.1707298422691981</v>
+        <v>0.481339498127797</v>
       </c>
       <c r="J22">
-        <v>0.3427851413573535</v>
+        <v>0.2263392205252757</v>
       </c>
       <c r="K22">
-        <v>5.166277644457011</v>
+        <v>1.805436141385883</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5212342003357779</v>
+        <v>1.447339679548671</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3704691718516528</v>
+        <v>0.1223773805260038</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2094533391844919</v>
+        <v>0.1605538087148233</v>
       </c>
       <c r="E23">
-        <v>0.2449865135022264</v>
+        <v>0.1736156579871491</v>
       </c>
       <c r="F23">
-        <v>1.883868516013635</v>
+        <v>1.928721207902058</v>
       </c>
       <c r="G23">
-        <v>1.426723506715007</v>
+        <v>1.269097203450428</v>
       </c>
       <c r="H23">
-        <v>0.7881179557266478</v>
+        <v>1.145907436651896</v>
       </c>
       <c r="I23">
-        <v>0.1745147014777526</v>
+        <v>0.4836335552004591</v>
       </c>
       <c r="J23">
-        <v>0.3302688095609767</v>
+        <v>0.2237990971076727</v>
       </c>
       <c r="K23">
-        <v>4.965959993928436</v>
+        <v>1.753147263271501</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5383714302172695</v>
+        <v>1.454261192054245</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3178503364875098</v>
+        <v>0.1058830971395111</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.180754389802118</v>
+        <v>0.1538667850108624</v>
       </c>
       <c r="E24">
-        <v>0.2110716169076241</v>
+        <v>0.1663642331697801</v>
       </c>
       <c r="F24">
-        <v>1.664707223520168</v>
+        <v>1.897671627056539</v>
       </c>
       <c r="G24">
-        <v>1.250627152495866</v>
+        <v>1.242943126298911</v>
       </c>
       <c r="H24">
-        <v>0.7188846313288479</v>
+        <v>1.142122346385577</v>
       </c>
       <c r="I24">
-        <v>0.1900145402135305</v>
+        <v>0.4927561041851956</v>
       </c>
       <c r="J24">
-        <v>0.2840940663186586</v>
+        <v>0.2143925584942821</v>
       </c>
       <c r="K24">
-        <v>4.21750444078674</v>
+        <v>1.55580153612317</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6060276503732061</v>
+        <v>1.48146973898181</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2612120486336948</v>
+        <v>0.0880651455685495</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1504893734253017</v>
+        <v>0.1468551914804834</v>
       </c>
       <c r="E25">
-        <v>0.1757720333432715</v>
+        <v>0.1588433634824327</v>
       </c>
       <c r="F25">
-        <v>1.444939659558074</v>
+        <v>1.868443887488468</v>
       </c>
       <c r="G25">
-        <v>1.074985371141182</v>
+        <v>1.217950261391337</v>
       </c>
       <c r="H25">
-        <v>0.651650070441022</v>
+        <v>1.140306164766969</v>
       </c>
       <c r="I25">
-        <v>0.2090165134124451</v>
+        <v>0.5035220723682414</v>
       </c>
       <c r="J25">
-        <v>0.2364647693416941</v>
+        <v>0.2047004087707052</v>
       </c>
       <c r="K25">
-        <v>3.427421061679297</v>
+        <v>1.344414731869222</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6844139520124193</v>
+        <v>1.512938462393761</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_71/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_71/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07492757642405934</v>
+        <v>0.2195371545105615</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1418663856174618</v>
+        <v>0.1286662804919985</v>
       </c>
       <c r="E2">
-        <v>0.1535630155413727</v>
+        <v>0.1506453191609332</v>
       </c>
       <c r="F2">
-        <v>1.850564403315317</v>
+        <v>1.294729725220918</v>
       </c>
       <c r="G2">
-        <v>1.202286409497134</v>
+        <v>0.9555699616397533</v>
       </c>
       <c r="H2">
-        <v>1.140910202406872</v>
+        <v>0.6074482974963047</v>
       </c>
       <c r="I2">
-        <v>0.5122450281881115</v>
+        <v>0.2247858735049828</v>
       </c>
       <c r="J2">
-        <v>0.1979505855692381</v>
+        <v>0.2028635324505856</v>
       </c>
       <c r="K2">
-        <v>1.190017266316573</v>
+        <v>2.856343631085025</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.537932231489793</v>
+        <v>0.746370767777452</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.06601511057540677</v>
+        <v>0.1912773489056292</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1385942412145624</v>
+        <v>0.114105070948483</v>
       </c>
       <c r="E3">
-        <v>0.1501442596801645</v>
+        <v>0.1340504067816966</v>
       </c>
       <c r="F3">
-        <v>1.84070584341633</v>
+        <v>1.198980472212725</v>
       </c>
       <c r="G3">
-        <v>1.193364651663103</v>
+        <v>0.8797682589804765</v>
       </c>
       <c r="H3">
-        <v>1.142526749673834</v>
+        <v>0.5803164773930831</v>
       </c>
       <c r="I3">
-        <v>0.5186530680228412</v>
+        <v>0.2364983720743101</v>
       </c>
       <c r="J3">
-        <v>0.1936152618165892</v>
+        <v>0.1808294600250164</v>
       </c>
       <c r="K3">
-        <v>1.086145941070612</v>
+        <v>2.474140325631197</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.556008322597279</v>
+        <v>0.7908224739826455</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06053932161339048</v>
+        <v>0.173907841502583</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1366390091034475</v>
+        <v>0.1052596513578976</v>
       </c>
       <c r="E4">
-        <v>0.1481237964890028</v>
+        <v>0.1240436759057353</v>
       </c>
       <c r="F4">
-        <v>1.835762985020736</v>
+        <v>1.142819956880132</v>
       </c>
       <c r="G4">
-        <v>1.188717721887599</v>
+        <v>0.8354409955438626</v>
       </c>
       <c r="H4">
-        <v>1.144113671600081</v>
+        <v>0.5649064978766773</v>
       </c>
       <c r="I4">
-        <v>0.5228324154145678</v>
+        <v>0.2441700121340684</v>
       </c>
       <c r="J4">
-        <v>0.1910707320192984</v>
+        <v>0.1676115325336909</v>
       </c>
       <c r="K4">
-        <v>1.022743832006114</v>
+        <v>2.241305142564556</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.567668189366525</v>
+        <v>0.819275542091769</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05830720056020766</v>
+        <v>0.1668238981778956</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1358558362146596</v>
+        <v>0.1016766592973113</v>
       </c>
       <c r="E5">
-        <v>0.1473202248180279</v>
+        <v>0.1200075095583273</v>
       </c>
       <c r="F5">
-        <v>1.83402752926952</v>
+        <v>1.120546835652419</v>
       </c>
       <c r="G5">
-        <v>1.187032498314892</v>
+        <v>0.8178912387952693</v>
       </c>
       <c r="H5">
-        <v>1.144909692670424</v>
+        <v>0.5589211160320389</v>
       </c>
       <c r="I5">
-        <v>0.524597065389651</v>
+        <v>0.2474133501538898</v>
       </c>
       <c r="J5">
-        <v>0.190063279428891</v>
+        <v>0.1622961304046555</v>
       </c>
       <c r="K5">
-        <v>0.9970015652793336</v>
+        <v>2.146812702245484</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.572560722525038</v>
+        <v>0.8311541250842964</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05793652224858192</v>
+        <v>0.1656472344085813</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.135726613906499</v>
+        <v>0.1010829441228651</v>
       </c>
       <c r="E6">
-        <v>0.1471879873070634</v>
+        <v>0.1193397038880875</v>
       </c>
       <c r="F6">
-        <v>1.833756185254259</v>
+        <v>1.116884048555363</v>
       </c>
       <c r="G6">
-        <v>1.186765241654996</v>
+        <v>0.8150069501663921</v>
       </c>
       <c r="H6">
-        <v>1.14505088759023</v>
+        <v>0.5579444696542879</v>
       </c>
       <c r="I6">
-        <v>0.5248937999373915</v>
+        <v>0.2479588722605897</v>
       </c>
       <c r="J6">
-        <v>0.189897770765576</v>
+        <v>0.1614175988587903</v>
       </c>
       <c r="K6">
-        <v>0.9927328027855253</v>
+        <v>2.13114381645056</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.573381641346372</v>
+        <v>0.8331434705683112</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06050922100401124</v>
+        <v>0.1738123297277525</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1366283918237627</v>
+        <v>0.1052112454660517</v>
       </c>
       <c r="E7">
-        <v>0.1481128791341</v>
+        <v>0.1239890795157592</v>
       </c>
       <c r="F7">
-        <v>1.835738451751084</v>
+        <v>1.142517154702617</v>
       </c>
       <c r="G7">
-        <v>1.1886941511343</v>
+        <v>0.8352022872885243</v>
       </c>
       <c r="H7">
-        <v>1.144123802518507</v>
+        <v>0.5648246104744175</v>
       </c>
       <c r="I7">
-        <v>0.5228559649897466</v>
+        <v>0.2442132835470545</v>
       </c>
       <c r="J7">
-        <v>0.1910570259294815</v>
+        <v>0.1675395688325949</v>
       </c>
       <c r="K7">
-        <v>1.022396279416398</v>
+        <v>2.240029298687688</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.567733600764369</v>
+        <v>0.8194346020389771</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07185539379632644</v>
+        <v>0.2097961057436493</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1407269977284926</v>
+        <v>0.1236243409396138</v>
       </c>
       <c r="E8">
-        <v>0.1523679009174792</v>
+        <v>0.1448828345100743</v>
       </c>
       <c r="F8">
-        <v>1.846934468509545</v>
+        <v>1.261139284955519</v>
       </c>
       <c r="G8">
-        <v>1.199037367379262</v>
+        <v>0.9289469069516372</v>
       </c>
       <c r="H8">
-        <v>1.141344155175787</v>
+        <v>0.5978216787483319</v>
       </c>
       <c r="I8">
-        <v>0.5144037030127908</v>
+        <v>0.2287224436539343</v>
       </c>
       <c r="J8">
-        <v>0.1964313715297692</v>
+        <v>0.1951971209246963</v>
       </c>
       <c r="K8">
-        <v>1.154124643155285</v>
+        <v>2.724132758177916</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.544048391869367</v>
+        <v>0.7614521888898764</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09407029813274903</v>
+        <v>0.2802817117102165</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1491901070444044</v>
+        <v>0.1606042060934669</v>
       </c>
       <c r="E9">
-        <v>0.1613367250750528</v>
+        <v>0.1875135084730104</v>
       </c>
       <c r="F9">
-        <v>1.877722025256048</v>
+        <v>1.516996866263412</v>
       </c>
       <c r="G9">
-        <v>1.225941841818184</v>
+        <v>1.13246126319936</v>
       </c>
       <c r="H9">
-        <v>1.140615868687149</v>
+        <v>0.6734055059590389</v>
       </c>
       <c r="I9">
-        <v>0.4997718658617494</v>
+        <v>0.202327658534081</v>
       </c>
       <c r="J9">
-        <v>0.2079049200261949</v>
+        <v>0.2522553849191524</v>
       </c>
       <c r="K9">
-        <v>1.415425500740469</v>
+        <v>3.691645545201084</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.502054921066994</v>
+        <v>0.6573246718759842</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1103622987864838</v>
+        <v>0.3321191741009955</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1556659751223606</v>
+        <v>0.1884827588255433</v>
       </c>
       <c r="E10">
-        <v>0.1683086823633246</v>
+        <v>0.2201637584074376</v>
       </c>
       <c r="F10">
-        <v>1.905762386032819</v>
+        <v>1.722745986098843</v>
       </c>
       <c r="G10">
-        <v>1.249787279709039</v>
+        <v>1.297175720046795</v>
       </c>
       <c r="H10">
-        <v>1.142970946467244</v>
+        <v>0.7370341370861979</v>
       </c>
       <c r="I10">
-        <v>0.4902071553266225</v>
+        <v>0.1856185540371929</v>
       </c>
       <c r="J10">
-        <v>0.2169097632605741</v>
+        <v>0.2964349547301453</v>
       </c>
       <c r="K10">
-        <v>1.609247835103588</v>
+        <v>4.419082393871918</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.473917863808195</v>
+        <v>0.5872177131036818</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1177659958613759</v>
+        <v>0.3557367999237755</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1586677750059948</v>
+        <v>0.201363337807976</v>
       </c>
       <c r="E11">
-        <v>0.1715639084066112</v>
+        <v>0.2353845800070502</v>
       </c>
       <c r="F11">
-        <v>1.919704025329651</v>
+        <v>1.821095610836906</v>
       </c>
       <c r="G11">
-        <v>1.261530241178264</v>
+        <v>1.376197226228157</v>
       </c>
       <c r="H11">
-        <v>1.144672479089508</v>
+        <v>0.7681014948779534</v>
       </c>
       <c r="I11">
-        <v>0.4861134648706944</v>
+        <v>0.1786610502781141</v>
       </c>
       <c r="J11">
-        <v>0.221132483339801</v>
+        <v>0.3171571499532604</v>
       </c>
       <c r="K11">
-        <v>1.697830332694366</v>
+        <v>4.754989434727975</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.461707445148116</v>
+        <v>0.5568491939748377</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1205683195935876</v>
+        <v>0.3646875005923675</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.159812477083392</v>
+        <v>0.2062734167626132</v>
       </c>
       <c r="E12">
-        <v>0.1728086226358627</v>
+        <v>0.2412084734295874</v>
       </c>
       <c r="F12">
-        <v>1.925154472847183</v>
+        <v>1.859103975309608</v>
       </c>
       <c r="G12">
-        <v>1.266106461774768</v>
+        <v>1.406782236823148</v>
       </c>
       <c r="H12">
-        <v>1.14540761065453</v>
+        <v>0.7802047488525261</v>
       </c>
       <c r="I12">
-        <v>0.4846003220175472</v>
+        <v>0.1761245747925209</v>
       </c>
       <c r="J12">
-        <v>0.2227497696681553</v>
+        <v>0.3251062504253071</v>
       </c>
       <c r="K12">
-        <v>1.731433561555775</v>
+        <v>4.883033044337537</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.45716847603474</v>
+        <v>0.5455812132585827</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1199648498491541</v>
+        <v>0.3627594529621376</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1595655906710647</v>
+        <v>0.2052144318475655</v>
       </c>
       <c r="E13">
-        <v>0.1725400160416015</v>
+        <v>0.2399513990286835</v>
       </c>
       <c r="F13">
-        <v>1.923973005637038</v>
+        <v>1.850882754907261</v>
       </c>
       <c r="G13">
-        <v>1.26511512479118</v>
+        <v>1.400164558273559</v>
       </c>
       <c r="H13">
-        <v>1.14524524579906</v>
+        <v>0.7775824617604599</v>
       </c>
       <c r="I13">
-        <v>0.4849245559556579</v>
+        <v>0.1766663889194149</v>
       </c>
       <c r="J13">
-        <v>0.2224006461716357</v>
+        <v>0.3233895225584149</v>
       </c>
       <c r="K13">
-        <v>1.724193886598641</v>
+        <v>4.855416943954879</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.458142248575481</v>
+        <v>0.5479974429650305</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1179965718353913</v>
+        <v>0.3564730229444564</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1587617905880876</v>
+        <v>0.2017666180097564</v>
       </c>
       <c r="E14">
-        <v>0.171666070665438</v>
+        <v>0.2358624671401586</v>
       </c>
       <c r="F14">
-        <v>1.920149005835</v>
+        <v>1.824206741391563</v>
       </c>
       <c r="G14">
-        <v>1.261904132249413</v>
+        <v>1.378699777032068</v>
       </c>
       <c r="H14">
-        <v>1.144731138053714</v>
+        <v>0.7690902443378036</v>
       </c>
       <c r="I14">
-        <v>0.4859882349348137</v>
+        <v>0.1784503713187888</v>
       </c>
       <c r="J14">
-        <v>0.2212651726683958</v>
+        <v>0.3178090074731443</v>
       </c>
       <c r="K14">
-        <v>1.700593710311239</v>
+        <v>4.765506004300221</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.461332320204075</v>
+        <v>0.5559174447418398</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1167907700439343</v>
+        <v>0.3526234042222285</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1582704782527173</v>
+        <v>0.1996590862163004</v>
       </c>
       <c r="E15">
-        <v>0.1711323207279634</v>
+        <v>0.2333659298550756</v>
       </c>
       <c r="F15">
-        <v>1.917828986847525</v>
+        <v>1.807969175358735</v>
       </c>
       <c r="G15">
-        <v>1.259954179353116</v>
+        <v>1.365640383522191</v>
       </c>
       <c r="H15">
-        <v>1.144428062104197</v>
+        <v>0.7639336797265628</v>
       </c>
       <c r="I15">
-        <v>0.4866445951648739</v>
+        <v>0.1795560730888148</v>
       </c>
       <c r="J15">
-        <v>0.2205720387983661</v>
+        <v>0.3144044552193748</v>
       </c>
       <c r="K15">
-        <v>1.686145591942193</v>
+        <v>4.710546658697069</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.463297384838075</v>
+        <v>0.5607992780015563</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1098782793651623</v>
+        <v>0.3305766060262414</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.155470920734075</v>
+        <v>0.1876453051282141</v>
       </c>
       <c r="E16">
-        <v>0.168097629080016</v>
+        <v>0.2191770454579398</v>
       </c>
       <c r="F16">
-        <v>1.904875175098354</v>
+        <v>1.716421080542716</v>
       </c>
       <c r="G16">
-        <v>1.24903792467191</v>
+        <v>1.292099885795238</v>
       </c>
       <c r="H16">
-        <v>1.142872443491314</v>
+        <v>0.7350493103458007</v>
       </c>
       <c r="I16">
-        <v>0.490479869724858</v>
+        <v>0.1860866649997774</v>
       </c>
       <c r="J16">
-        <v>0.2166363467579941</v>
+        <v>0.2950942984339093</v>
       </c>
       <c r="K16">
-        <v>1.603467024422798</v>
+        <v>4.397240935461184</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.474727710745171</v>
+        <v>0.5892340957359199</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1056355967532738</v>
+        <v>0.3170623111002726</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1537677617726274</v>
+        <v>0.1803287643284079</v>
       </c>
       <c r="E17">
-        <v>0.1662573697356891</v>
+        <v>0.2105717798127316</v>
       </c>
       <c r="F17">
-        <v>1.897232542855406</v>
+        <v>1.661532560549716</v>
       </c>
       <c r="G17">
-        <v>1.242570979885897</v>
+        <v>1.248082855138421</v>
       </c>
       <c r="H17">
-        <v>1.142079654862556</v>
+        <v>0.7178961021713235</v>
       </c>
       <c r="I17">
-        <v>0.4928986290322186</v>
+        <v>0.1902616735505021</v>
       </c>
       <c r="J17">
-        <v>0.2142543377067625</v>
+        <v>0.2834164633870131</v>
       </c>
       <c r="K17">
-        <v>1.55285167884773</v>
+        <v>4.206401692194788</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.481890852191375</v>
+        <v>0.6070769220164127</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1031946130442947</v>
+        <v>0.3092925550218126</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1527934139723897</v>
+        <v>0.1761389087458411</v>
       </c>
       <c r="E18">
-        <v>0.165206774384032</v>
+        <v>0.2056564332450392</v>
       </c>
       <c r="F18">
-        <v>1.892948297901285</v>
+        <v>1.630404178855429</v>
       </c>
       <c r="G18">
-        <v>1.238935619526728</v>
+        <v>1.223145822457212</v>
       </c>
       <c r="H18">
-        <v>1.141682970046332</v>
+        <v>0.7082276044072842</v>
       </c>
       <c r="I18">
-        <v>0.4943140552757352</v>
+        <v>0.1927232393157574</v>
       </c>
       <c r="J18">
-        <v>0.2128961600696186</v>
+        <v>0.2767576798099327</v>
       </c>
       <c r="K18">
-        <v>1.52377784050941</v>
+        <v>4.097097711020979</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.48606635938255</v>
+        <v>0.61748220832696</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1023680229589274</v>
+        <v>0.3066623599668077</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.152464422270242</v>
+        <v>0.1747233461283457</v>
       </c>
       <c r="E19">
-        <v>0.1648524130069973</v>
+        <v>0.2039978435836289</v>
       </c>
       <c r="F19">
-        <v>1.89151687714147</v>
+        <v>1.6199381967497</v>
       </c>
       <c r="G19">
-        <v>1.237719200578312</v>
+        <v>1.21476580157065</v>
       </c>
       <c r="H19">
-        <v>1.141558839964375</v>
+        <v>0.7049869825495705</v>
       </c>
       <c r="I19">
-        <v>0.494797452761869</v>
+        <v>0.193566859936757</v>
       </c>
       <c r="J19">
-        <v>0.2124383448732203</v>
+        <v>0.2745127383392401</v>
       </c>
       <c r="K19">
-        <v>1.513940604888433</v>
+        <v>4.060164954803611</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.487489635852072</v>
+        <v>0.6210293720885494</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1060873119680394</v>
+        <v>0.3185005746387617</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1539485215067913</v>
+        <v>0.1811056882931723</v>
       </c>
       <c r="E20">
-        <v>0.1664524536284659</v>
+        <v>0.2114842383505078</v>
       </c>
       <c r="F20">
-        <v>1.898034560726046</v>
+        <v>1.667329219155519</v>
       </c>
       <c r="G20">
-        <v>1.243250672495464</v>
+        <v>1.252728668463476</v>
       </c>
       <c r="H20">
-        <v>1.142157909315927</v>
+        <v>0.7197014100003969</v>
       </c>
       <c r="I20">
-        <v>0.4926386409975549</v>
+        <v>0.1898109657038773</v>
       </c>
       <c r="J20">
-        <v>0.2145066755220455</v>
+        <v>0.2846535015490161</v>
       </c>
       <c r="K20">
-        <v>1.558235758108253</v>
+        <v>4.226668205650583</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.481122583066405</v>
+        <v>0.6051626783931496</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1185747395584826</v>
+        <v>0.358319287441148</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.158997669842762</v>
+        <v>0.2027784096159024</v>
       </c>
       <c r="E21">
-        <v>0.1719224430743367</v>
+        <v>0.2370617937977215</v>
       </c>
       <c r="F21">
-        <v>1.921267560856094</v>
+        <v>1.832020663777087</v>
       </c>
       <c r="G21">
-        <v>1.262843761185138</v>
+        <v>1.384985939655877</v>
       </c>
       <c r="H21">
-        <v>1.144879678302232</v>
+        <v>0.7715751377067193</v>
       </c>
       <c r="I21">
-        <v>0.4856748007935394</v>
+        <v>0.1779236606658898</v>
       </c>
       <c r="J21">
-        <v>0.2215981934023574</v>
+        <v>0.3194452667174659</v>
       </c>
       <c r="K21">
-        <v>1.707524055954195</v>
+        <v>4.791891089939043</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.460393015055651</v>
+        <v>0.5535847459343008</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1267283506254131</v>
+        <v>0.3843862218392644</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1623441025705006</v>
+        <v>0.2171342350726491</v>
       </c>
       <c r="E22">
-        <v>0.1755675233917984</v>
+        <v>0.2541323622932623</v>
       </c>
       <c r="F22">
-        <v>1.937448930552378</v>
+        <v>1.944162077161394</v>
       </c>
       <c r="G22">
-        <v>1.276403611319353</v>
+        <v>1.475317414146929</v>
       </c>
       <c r="H22">
-        <v>1.147187836730609</v>
+        <v>0.8074700062999227</v>
       </c>
       <c r="I22">
-        <v>0.481339498127797</v>
+        <v>0.1707298422691998</v>
       </c>
       <c r="J22">
-        <v>0.2263392205252757</v>
+        <v>0.3427851413572398</v>
       </c>
       <c r="K22">
-        <v>1.805436141385883</v>
+        <v>5.166277644457011</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.447339679548671</v>
+        <v>0.5212342003357113</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1223773805260038</v>
+        <v>0.3704691718516386</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1605538087148233</v>
+        <v>0.2094533391843783</v>
       </c>
       <c r="E23">
-        <v>0.1736156579871491</v>
+        <v>0.2449865135021909</v>
       </c>
       <c r="F23">
-        <v>1.928721207902058</v>
+        <v>1.883868516013635</v>
       </c>
       <c r="G23">
-        <v>1.269097203450428</v>
+        <v>1.42672350671495</v>
       </c>
       <c r="H23">
-        <v>1.145907436651896</v>
+        <v>0.7881179557266194</v>
       </c>
       <c r="I23">
-        <v>0.4836335552004591</v>
+        <v>0.1745147014777562</v>
       </c>
       <c r="J23">
-        <v>0.2237990971076727</v>
+        <v>0.3302688095609625</v>
       </c>
       <c r="K23">
-        <v>1.753147263271501</v>
+        <v>4.965959993928493</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.454261192054245</v>
+        <v>0.5383714302172731</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1058830971395111</v>
+        <v>0.317850336487524</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1538667850108624</v>
+        <v>0.1807543898020896</v>
       </c>
       <c r="E24">
-        <v>0.1663642331697801</v>
+        <v>0.2110716169076028</v>
       </c>
       <c r="F24">
-        <v>1.897671627056539</v>
+        <v>1.664707223520168</v>
       </c>
       <c r="G24">
-        <v>1.242943126298911</v>
+        <v>1.250627152495809</v>
       </c>
       <c r="H24">
-        <v>1.142122346385577</v>
+        <v>0.7188846313288479</v>
       </c>
       <c r="I24">
-        <v>0.4927561041851956</v>
+        <v>0.1900145402135305</v>
       </c>
       <c r="J24">
-        <v>0.2143925584942821</v>
+        <v>0.2840940663186586</v>
       </c>
       <c r="K24">
-        <v>1.55580153612317</v>
+        <v>4.217504440786797</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.48146973898181</v>
+        <v>0.6060276503732007</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0880651455685495</v>
+        <v>0.2612120486335812</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1468551914804834</v>
+        <v>0.1504893734254438</v>
       </c>
       <c r="E25">
-        <v>0.1588433634824327</v>
+        <v>0.1757720333432715</v>
       </c>
       <c r="F25">
-        <v>1.868443887488468</v>
+        <v>1.444939659558045</v>
       </c>
       <c r="G25">
-        <v>1.217950261391337</v>
+        <v>1.074985371141125</v>
       </c>
       <c r="H25">
-        <v>1.140306164766969</v>
+        <v>0.651650070441022</v>
       </c>
       <c r="I25">
-        <v>0.5035220723682414</v>
+        <v>0.2090165134124451</v>
       </c>
       <c r="J25">
-        <v>0.2047004087707052</v>
+        <v>0.2364647693416941</v>
       </c>
       <c r="K25">
-        <v>1.344414731869222</v>
+        <v>3.42742106167924</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.512938462393761</v>
+        <v>0.6844139520124193</v>
       </c>
       <c r="O25">
         <v>0</v>
